--- a/data/income_statement/2digits/size/53_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/53_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>53-Postal and courier activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>53-Postal and courier activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3381005.44981</v>
@@ -968,25 +874,30 @@
         <v>6338824.57218</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7064951.950479999</v>
+        <v>7035443.56676</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7562960.87055</v>
+        <v>7539308.587640001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8844258.574119998</v>
+        <v>8844190.63092</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10884462.52508</v>
+        <v>10770437.30852</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12673164.69477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12568859.47798</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>17876229.521</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2772408.69209</v>
@@ -1007,25 +918,30 @@
         <v>5283115.80152</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5874160.60806</v>
+        <v>5844722.942030001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6242082.85533</v>
+        <v>6218457.88833</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>7238312.639719999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8290258.644520001</v>
+        <v>8176331.105460001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9277324.581770001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9277252.836119998</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>13548477.34</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>544099.10876</v>
@@ -1058,13 +974,18 @@
         <v>2550457.75893</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3340718.73409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3237161.32662</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4226106.528</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>64497.64896</v>
@@ -1085,25 +1006,30 @@
         <v>59234.06119</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>21218.15222</v>
+        <v>21147.43453</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>22558.19794</v>
+        <v>22530.88203</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>54123.29495</v>
+        <v>54055.35175</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>43746.12163</v>
+        <v>43648.44413</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>55121.37891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>54445.31524</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>101645.653</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>16711.04739</v>
@@ -1124,7 +1050,7 @@
         <v>51553.72625</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>58288.60604999999</v>
+        <v>58071.17206</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>61612.08528</v>
@@ -1136,13 +1062,18 @@
         <v>154821.3316</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>160049.27405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>159400.29898</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>247273.08</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>12555.61635</v>
@@ -1163,7 +1094,7 @@
         <v>27023.16689</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>39725.39717</v>
+        <v>39514.36957</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>52729.09123</v>
@@ -1175,13 +1106,18 @@
         <v>49813.86842</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>63866.59241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>63217.61734</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>75496.682</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3834.27249</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>93174.88103999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>169325.372</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>321.15855</v>
@@ -1241,7 +1182,7 @@
         <v>2752.12406</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2260.07276</v>
+        <v>2253.66637</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>1690.48845</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>3007.8006</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2451.026</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3364294.40242</v>
@@ -1280,25 +1226,30 @@
         <v>6287270.845930001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7006663.344430001</v>
+        <v>6977372.3947</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7501348.785270001</v>
+        <v>7477696.502359999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8762123.532330001</v>
+        <v>8762055.589130001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10729641.19348</v>
+        <v>10615615.97692</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>12513115.42072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12409459.179</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>17628956.441</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2352140.39251</v>
@@ -1319,7 +1270,7 @@
         <v>4956717.10629</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5431902.61724</v>
+        <v>5414836.49064</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>5928575.78844</v>
@@ -1328,16 +1279,21 @@
         <v>6660545.59216</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8264991.900119998</v>
+        <v>8262161.37418</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10580149.49945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10503830.69711</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>14741253.529</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>127271.78218</v>
@@ -1397,7 +1358,7 @@
         <v>240894.17839</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>232912.08213</v>
+        <v>232313.42396</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>72975.14164</v>
@@ -1406,16 +1367,21 @@
         <v>44021.07244</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>57115.64007</v>
+        <v>54285.11413</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>64007.81888000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>64007.67338</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>90343.69899999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>2224683.22037</v>
@@ -1436,7 +1402,7 @@
         <v>4687721.35884</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3483637.38696</v>
+        <v>3467169.91853</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>3823941.81014</v>
@@ -1448,13 +1414,18 @@
         <v>5465949.75208</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>10516033.75684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>10439715.1</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>14642576.903</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>185.38996</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>107.92373</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>8332.927</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1012154.00991</v>
@@ -1514,25 +1490,30 @@
         <v>1330553.73964</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1574760.72719</v>
+        <v>1562535.90406</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1572772.99683</v>
+        <v>1549120.71392</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2101577.94017</v>
+        <v>2101509.99697</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2464649.29336</v>
+        <v>2353454.60274</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1932965.92127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1905628.48189</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2887702.912</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>890056.5387200001</v>
@@ -1547,31 +1528,36 @@
         <v>873552.3600699999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1243359.2508</v>
+        <v>1243308.75283</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1116441.96258</v>
+        <v>1116423.87708</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1251434.62084</v>
+        <v>1247922.47072</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1436717.71887</v>
+        <v>1416833.79383</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1690225.91153</v>
+        <v>1684852.4571</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2338588.62494</v>
+        <v>2307951.01801</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2851641.34658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2837792.28368</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2976105.147</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>272.2264699999999</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>3371.82223</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>4886.622</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>436948.0707999999</v>
@@ -1631,25 +1622,30 @@
         <v>261642.37414</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>297733.88573</v>
+        <v>296293.44216</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>316359.94649</v>
+        <v>302007.76913</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>334738.52159</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>394751.59138</v>
+        <v>377350.4447999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>453262.44179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>448243.78922</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>118870.876</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>452836.24145</v>
@@ -1664,31 +1660,36 @@
         <v>687947.64572</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>974820.3864</v>
+        <v>974769.88843</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>852514.12401</v>
+        <v>852496.03851</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>953700.73511</v>
+        <v>951629.0285599999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1120357.77238</v>
+        <v>1114826.0247</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1355487.38994</v>
+        <v>1350113.93551</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1942166.44815</v>
+        <v>1928929.9878</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2395007.08256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2386176.67223</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2852347.649</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>122097.47119</v>
@@ -1703,31 +1704,36 @@
         <v>230312.20608</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>36755.63031</v>
+        <v>36806.12828</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>214111.77706</v>
+        <v>214129.86256</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>323326.10635</v>
+        <v>314613.43334</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>136055.27796</v>
+        <v>132286.92009</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>411352.02864</v>
+        <v>416657.53987</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>126060.66842</v>
+        <v>45503.58472999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-918675.4253100001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-932163.8017900001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-88402.235</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>208165.89598</v>
@@ -1742,31 +1748,36 @@
         <v>153525.55582</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>264160.26756</v>
+        <v>259024.58132</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>293468.95592</v>
+        <v>281620.64011</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>473345.7999700001</v>
+        <v>466736.73226</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>513676.55486</v>
+        <v>469977.16199</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>384872.13016</v>
+        <v>383459.48358</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>811595.58296</v>
+        <v>742482.82085</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>477610.98166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>469263.11895</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>847972.846</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>281.95868</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1481.53</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>71077.52815000001</v>
@@ -1859,31 +1880,36 @@
         <v>55456.16543000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>67253.10076999999</v>
+        <v>67036.86838</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>110323.33326</v>
+        <v>109931.34805</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>174457.13486</v>
+        <v>173066.69638</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>212616.20092</v>
+        <v>209937.3667</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>73696.51905</v>
+        <v>72284.08985999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>236359.04776</v>
+        <v>227676.32242</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>79944.85350999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>77843.12075</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>90126.17200000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1901,7 +1927,7 @@
         <v>19963.87701</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>34118.562</v>
+        <v>22662.2314</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>23461.58253</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>297.564</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>5447.13608</v>
@@ -1955,13 +1986,18 @@
         <v>9403.887839999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>13797.08265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>13624.6192</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>12866.437</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>5220.85098</v>
@@ -1994,13 +2030,18 @@
         <v>2822.04427</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>460.94903</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>362.70885</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>902.0650000000001</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>76761.39178000001</v>
@@ -2015,31 +2056,36 @@
         <v>14072.26513</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>49842.06979</v>
+        <v>44922.61594</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>17839.04379</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>41955.7526</v>
+        <v>36738.7869</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>64354.85298</v>
+        <v>23334.29433</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>146547.73582</v>
+        <v>146547.51843</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>360353.84311</v>
+        <v>299923.80634</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>171216.53261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>166213.69595</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>378308.138</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2060,7 +2106,7 @@
         <v>92.48478</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>14.66959</v>
+        <v>13.00606</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>24.87053</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>49658.98899000001</v>
@@ -2150,13 +2206,18 @@
         <v>202656.75998</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>211909.60518</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>210937.01552</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>363990.94</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>84808.31017</v>
@@ -2171,31 +2232,36 @@
         <v>85733.08774</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>119854.35926</v>
+        <v>114997.87075</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>113371.59932</v>
+        <v>101919.60269</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>149162.15182</v>
+        <v>146175.32472</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>157670.89136</v>
+        <v>132250.53536</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>248796.87193</v>
+        <v>248796.87191</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>545986.61804</v>
+        <v>523561.53442</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>311181.24818</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>306677.04989</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>652187.1310000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3005.82625</v>
@@ -2228,13 +2294,18 @@
         <v>24492.67562</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>24167.82462</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>24155.81294</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>25858.441</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>13323.69004</v>
@@ -2255,25 +2326,30 @@
         <v>17404.59633</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>17605.89404</v>
+        <v>17281.15204</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>26640.14418</v>
+        <v>26405.93882</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>25025.51181</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>33949.78026</v>
+        <v>33483.79926</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>51098.91287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>50718.86588</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>53662.978</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.33333</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>62139.26318000001</v>
@@ -2327,31 +2408,36 @@
         <v>39392.48497</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>65699.4719</v>
+        <v>60842.98339</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>51699.15047</v>
+        <v>40247.15384000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>59373.3154</v>
+        <v>56711.2303</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>72042.72303000001</v>
+        <v>46856.57239</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>171647.3828</v>
+        <v>171647.38278</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>447460.19119</v>
+        <v>425522.68025</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>207764.24683</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>203708.22658</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>471605.636</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>465.34329</v>
@@ -2381,16 +2467,21 @@
         <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>21.59168</v>
+        <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>80.65047</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>5873.85408</v>
@@ -2462,13 +2558,18 @@
         <v>40062.37929</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>28069.61339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>28013.49402</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>101060.076</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>17628.25571</v>
@@ -2483,31 +2584,36 @@
         <v>19432.5888</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>17002.35774</v>
+        <v>16745.36907</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>11233.36508</v>
+        <v>10840.65222</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>12787.38789</v>
+        <v>12564.86339</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>10361.31932</v>
+        <v>10115.89376</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>15030.19061</v>
+        <v>15021.2395</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>50963.65264</v>
+        <v>50730.79267</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>55786.27261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>55644.24268</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>80833.928</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>7440.65571</v>
@@ -2522,31 +2628,36 @@
         <v>17966.93146</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>7474.46826</v>
+        <v>7217.47959</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4516.29261</v>
+        <v>4123.57975</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>8321.31054</v>
+        <v>8098.78604</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7338.09606</v>
+        <v>7092.6705</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>13064.63753</v>
+        <v>13055.68642</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>49775.98662</v>
+        <v>49543.12665</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>55778.50247</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>55636.47254</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>73609.75199999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>10187.6</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>7.77014</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>7224.176</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>227826.80129</v>
@@ -2600,31 +2716,36 @@
         <v>278672.08536</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>164059.18087</v>
+        <v>164087.46978</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>382975.76858</v>
+        <v>382990.24776</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>634722.36661</v>
+        <v>622609.97749</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>481699.62214</v>
+        <v>459897.65296</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>532397.09626</v>
+        <v>536298.91204</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>340705.9807</v>
+        <v>213694.07849</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-808031.96444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-825221.97541</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>26549.552</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>128767.30834</v>
@@ -2639,31 +2760,36 @@
         <v>143507.74368</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>125741.55856</v>
+        <v>125741.53634</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>163390.3472</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>147940.99921</v>
+        <v>147594.08193</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>326440.00798</v>
+        <v>326418.9946499999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>656514.02114</v>
+        <v>637606.55164</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>301749.87873</v>
+        <v>301625.87254</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>106763.66363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>105864.8765</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>485775.938</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4183.415739999999</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>12061.70858</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>349629.994</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>124583.8926</v>
@@ -2717,31 +2848,36 @@
         <v>139413.25096</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>122741.48001</v>
+        <v>122741.45779</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>161443.14012</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>139044.23726</v>
+        <v>138697.31998</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>319383.80263</v>
+        <v>319362.7893</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>611986.5065199999</v>
+        <v>593079.0370199999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>286736.89786</v>
+        <v>286612.89167</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>94701.95505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>93803.16791999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>136145.944</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>13036.84819</v>
@@ -2762,25 +2898,30 @@
         <v>69429.19408</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>70195.15556</v>
+        <v>70165.72408</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>96027.74968000001</v>
+        <v>96018.49776</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>158960.25196</v>
+        <v>152400.07437</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>160482.88494</v>
+        <v>160425.15092</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>263411.58783</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>262977.31138</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>273433.867</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1762.41072</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>237101.61572</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>163914.56</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>11274.43747</v>
@@ -2879,25 +3030,30 @@
         <v>34841.97276999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>36458.43945000001</v>
+        <v>36429.00797</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>46558.60361</v>
+        <v>46549.35169</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>55460.85975</v>
+        <v>48900.68216</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>44333.33021</v>
+        <v>44275.59619</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>26309.97211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>25875.69566</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>109519.307</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>343557.26144</v>
@@ -2912,31 +3068,36 @@
         <v>395882.7259199999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>215208.89438</v>
+        <v>215237.16107</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>476936.9217</v>
+        <v>476951.40088</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>712468.21026</v>
+        <v>700038.3353399999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>712111.88044</v>
+        <v>690298.1498499999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1029950.86544</v>
+        <v>1021505.38931</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>481972.97449</v>
+        <v>354894.80011</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-964679.88864</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-982334.4102899999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>238891.623</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>26158.75281</v>
@@ -2957,25 +3118,30 @@
         <v>105074.64881</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>147196.30883</v>
+        <v>144639.49915</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>126774.46538</v>
+        <v>122363.02781</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>198491.26797</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>130463.73128</v>
+        <v>101991.11485</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>62447.66621</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>58080.08168</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>260946.064</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>317398.50863</v>
@@ -2990,28 +3156,31 @@
         <v>313953.26234</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>167115.62408</v>
+        <v>167143.89077</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>371862.27289</v>
+        <v>371876.75207</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>565271.9014300001</v>
+        <v>555398.8361900001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>585337.4150599999</v>
+        <v>567935.1220399999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>831459.59747</v>
+        <v>823014.12134</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>351509.24321</v>
+        <v>252903.68526</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1027127.55485</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1040414.49197</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-22054.441</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>12</v>
@@ -3044,28 +3216,31 @@
         <v>15</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>11</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>